--- a/Numerical Methods/01 Cauchy problem/rungeKutta.xlsx
+++ b/Numerical Methods/01 Cauchy problem/rungeKutta.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="ОДУ2" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>t</t>
   </si>
@@ -79,6 +78,9 @@
   </si>
   <si>
     <t>increment out</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -156,12 +158,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -169,10 +165,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -476,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,15 +501,15 @@
       <c r="C2" s="1">
         <v>0.25</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="3" t="s">
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="10"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
@@ -519,31 +521,31 @@
       <c r="D3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5" t="s">
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
-      <c r="O3" s="10"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-      <c r="R3" s="10" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="S3" s="10"/>
+      <c r="S3" s="12"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -555,19 +557,19 @@
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -594,15 +596,15 @@
       <c r="Q4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R4" s="11">
-        <v>0</v>
-      </c>
-      <c r="S4" s="11">
+      <c r="R4" s="8">
+        <v>0</v>
+      </c>
+      <c r="S4" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B5" s="6">
+      <c r="B5" s="4">
         <v>0</v>
       </c>
       <c r="C5" s="1">
@@ -611,24 +613,24 @@
       <c r="D5" s="1">
         <v>0</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="5">
         <f>B5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="7">
+      <c r="F5" s="5">
         <f>C5</f>
         <v>1</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="5">
         <f>D5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="8">
-        <f>G5</f>
-        <v>0</v>
-      </c>
-      <c r="I5" s="8">
-        <f>-SIN(F5)</f>
+      <c r="H5" s="6">
+        <f t="shared" ref="H5:H12" si="0">G5</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <f t="shared" ref="I5:I12" si="1">-SIN(F5)</f>
         <v>-0.8414709848078965</v>
       </c>
       <c r="J5" s="1">
@@ -662,11 +664,11 @@
         <v>-0.10518387310098706</v>
       </c>
       <c r="H6" s="1">
-        <f>G6</f>
+        <f t="shared" si="0"/>
         <v>-0.10518387310098706</v>
       </c>
       <c r="I6" s="1">
-        <f>-SIN(F6)</f>
+        <f t="shared" si="1"/>
         <v>-0.8414709848078965</v>
       </c>
       <c r="L6" s="1">
@@ -678,7 +680,7 @@
         <v>-0.21036774620197413</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -696,11 +698,11 @@
         <v>-0.10518387310098706</v>
       </c>
       <c r="H7" s="1">
-        <f>G7</f>
+        <f t="shared" si="0"/>
         <v>-0.10518387310098706</v>
       </c>
       <c r="I7" s="1">
-        <f>-SIN(F7)</f>
+        <f t="shared" si="1"/>
         <v>-0.83429457205231916</v>
       </c>
       <c r="J7" s="1"/>
@@ -724,7 +726,7 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
     </row>
-    <row r="8" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -742,11 +744,11 @@
         <v>-0.20857364301307979</v>
       </c>
       <c r="H8" s="1">
-        <f>G8</f>
+        <f t="shared" si="0"/>
         <v>-0.20857364301307979</v>
       </c>
       <c r="I8" s="1">
-        <f>-SIN(F8)</f>
+        <f t="shared" si="1"/>
         <v>-0.82697393729981161</v>
       </c>
       <c r="J8" s="1"/>
@@ -771,7 +773,7 @@
       <c r="W8" s="1"/>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B9" s="6">
+      <c r="B9" s="4">
         <v>0.25</v>
       </c>
       <c r="C9" s="1">
@@ -782,24 +784,24 @@
         <f>D5+S5</f>
         <v>-0.2091656681595058</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="5">
         <f>B9</f>
         <v>0.25</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="5">
         <f>C9</f>
         <v>0.97377878602429047</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="5">
         <f>D9</f>
         <v>-0.2091656681595058</v>
       </c>
-      <c r="H9" s="8">
-        <f>G9</f>
+      <c r="H9" s="6">
+        <f t="shared" si="0"/>
         <v>-0.2091656681595058</v>
       </c>
-      <c r="I9" s="8">
-        <f>-SIN(F9)</f>
+      <c r="I9" s="6">
+        <f t="shared" si="1"/>
         <v>-0.82701596486573503</v>
       </c>
       <c r="J9" s="1">
@@ -819,7 +821,7 @@
         <v>-0.20170197181566363</v>
       </c>
     </row>
-    <row r="10" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="1">
         <f>E9+$C$2/2</f>
         <v>0.375</v>
@@ -833,11 +835,11 @@
         <v>-0.31254266376772266</v>
       </c>
       <c r="H10" s="1">
-        <f>G10</f>
+        <f t="shared" si="0"/>
         <v>-0.31254266376772266</v>
       </c>
       <c r="I10" s="1">
-        <f>-SIN(F10)</f>
+        <f t="shared" si="1"/>
         <v>-0.81203642877836257</v>
       </c>
       <c r="J10" s="1"/>
@@ -857,7 +859,7 @@
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
     </row>
-    <row r="11" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="1">
         <f>E10</f>
         <v>0.375</v>
@@ -871,11 +873,11 @@
         <v>-0.31067022175680115</v>
       </c>
       <c r="H11" s="1">
-        <f>G11</f>
+        <f t="shared" si="0"/>
         <v>-0.31067022175680115</v>
       </c>
       <c r="I11" s="1">
-        <f>-SIN(F11)</f>
+        <f t="shared" si="1"/>
         <v>-0.80442740309995941</v>
       </c>
       <c r="J11" s="1"/>
@@ -895,7 +897,7 @@
       <c r="R11" s="1"/>
       <c r="S11" s="1"/>
     </row>
-    <row r="12" spans="1:23" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:23" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E12" s="1">
         <f>E9+$C$2</f>
         <v>0.5</v>
@@ -909,11 +911,11 @@
         <v>-0.41027251893449568</v>
       </c>
       <c r="H12" s="1">
-        <f>G12</f>
+        <f t="shared" si="0"/>
         <v>-0.41027251893449568</v>
       </c>
       <c r="I12" s="1">
-        <f>-SIN(F12)</f>
+        <f t="shared" si="1"/>
         <v>-0.78090369495354717</v>
       </c>
       <c r="J12" s="1"/>
@@ -934,7 +936,7 @@
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B13" s="6">
+      <c r="B13" s="4">
         <v>0.5</v>
       </c>
       <c r="C13" s="1">
@@ -945,239 +947,239 @@
         <f>D9+S9</f>
         <v>-0.4108676399751694</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8">
-        <f t="shared" ref="H9:H27" si="0">G13</f>
-        <v>0</v>
-      </c>
-      <c r="I13" s="8">
-        <f t="shared" ref="I9:I27" si="1">-SIN(F13)</f>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="6">
+        <f t="shared" ref="H13:H27" si="2">G13</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" ref="I13:I27" si="3">-SIN(F13)</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B14" s="6">
+      <c r="B14" s="4">
         <v>0.75</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="8">
-        <f t="shared" si="1"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B15" s="6">
+      <c r="B15" s="4">
         <v>1</v>
       </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="8">
-        <f t="shared" si="1"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B16" s="6">
+      <c r="B16" s="4">
         <v>1.25</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <f t="shared" si="1"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="6">
+      <c r="B17" s="4">
         <v>1.5</v>
       </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="8">
-        <f t="shared" si="1"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <v>1.75</v>
       </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="8">
-        <f t="shared" si="1"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="6">
+      <c r="B19" s="4">
         <v>2</v>
       </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="8">
-        <f t="shared" si="1"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="6">
+      <c r="B20" s="4">
         <v>2.25</v>
       </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="8">
-        <f t="shared" si="1"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="6">
+      <c r="B21" s="4">
         <v>2.5</v>
       </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="8">
-        <f t="shared" si="1"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="6">
+      <c r="B22" s="4">
         <v>2.75</v>
       </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="8">
-        <f t="shared" si="1"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="6">
+      <c r="B23" s="4">
         <v>3</v>
       </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="1"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="6">
+      <c r="B24" s="4">
         <v>3.25</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="8">
-        <f t="shared" si="1"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="6">
+      <c r="B25" s="4">
         <v>3.5</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="8">
-        <f t="shared" si="1"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="6">
+      <c r="B26" s="4">
         <v>3.75</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="8">
-        <f t="shared" si="1"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="6">
+      <c r="B27" s="4">
         <v>4</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="8">
-        <f t="shared" si="1"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
+      <c r="H27" s="6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -1195,24 +1197,212 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="C4:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <f>-SIN(C5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>0.25</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D25" si="0">-SIN(C6)</f>
+        <v>-0.24740395925452294</v>
+      </c>
+    </row>
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>-0.47942553860420301</v>
+      </c>
+    </row>
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.75</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>-0.68163876002333412</v>
+      </c>
+    </row>
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>-0.8414709848078965</v>
+      </c>
+    </row>
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>1.25</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>-0.9489846193555862</v>
+      </c>
+    </row>
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>1.5</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>-0.99749498660405445</v>
+      </c>
+    </row>
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>1.75</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>-0.98398594687393692</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>-0.90929742682568171</v>
+      </c>
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>2.25</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>-0.7780731968879212</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>2.5</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>-0.59847214410395655</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>2.75</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>-0.38166099205233167</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>-0.14112000805986721</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>3.25</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>0.10819513453010837</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>3.5</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>0.35078322768961984</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>3.75</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>0.57156131874234373</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>0.7568024953079282</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>4.25</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>0.8949893582285835</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>4.5</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>0.97753011766509701</v>
+      </c>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>4.75</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>0.99929278897537799</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>0.95892427466313845</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>